--- a/natmiOut/OldD4/LR-pairs_lrc2p/Colq-Musk.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Colq-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Colq</t>
   </si>
   <si>
     <t>Musk</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0412887632937871</v>
+        <v>0.08110766666666668</v>
       </c>
       <c r="H2">
-        <v>0.0412887632937871</v>
+        <v>0.243323</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.483901792932281</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.512077833524143</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.77604459420243</v>
+        <v>0.047924</v>
       </c>
       <c r="N2">
-        <v>3.77604459420243</v>
+        <v>0.143772</v>
       </c>
       <c r="O2">
-        <v>0.3972147064734539</v>
+        <v>0.004523918624404262</v>
       </c>
       <c r="P2">
-        <v>0.3972147064734539</v>
+        <v>0.005628995363396378</v>
       </c>
       <c r="Q2">
-        <v>0.1559082114368085</v>
+        <v>0.003887003817333334</v>
       </c>
       <c r="R2">
-        <v>0.1559082114368085</v>
+        <v>0.034983034356</v>
       </c>
       <c r="S2">
-        <v>0.3972147064734539</v>
+        <v>0.002189132333428961</v>
       </c>
       <c r="T2">
-        <v>0.3972147064734539</v>
+        <v>0.002882483750605464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.08110766666666668</v>
+      </c>
+      <c r="H3">
+        <v>0.243323</v>
+      </c>
+      <c r="I3">
+        <v>0.483901792932281</v>
+      </c>
+      <c r="J3">
+        <v>0.512077833524143</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>4.120856</v>
+      </c>
+      <c r="N3">
+        <v>12.362568</v>
+      </c>
+      <c r="O3">
+        <v>0.3889996078559396</v>
+      </c>
+      <c r="P3">
+        <v>0.4840221875724928</v>
+      </c>
+      <c r="Q3">
+        <v>0.3342330148293334</v>
+      </c>
+      <c r="R3">
+        <v>3.008097133464</v>
+      </c>
+      <c r="S3">
+        <v>0.1882376076914434</v>
+      </c>
+      <c r="T3">
+        <v>0.2478570331897385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.08110766666666668</v>
+      </c>
+      <c r="H4">
+        <v>0.243323</v>
+      </c>
+      <c r="I4">
+        <v>0.483901792932281</v>
+      </c>
+      <c r="J4">
+        <v>0.512077833524143</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1856033333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.55681</v>
+      </c>
+      <c r="O4">
+        <v>0.01752054036428885</v>
+      </c>
+      <c r="P4">
+        <v>0.0218003568726368</v>
+      </c>
+      <c r="Q4">
+        <v>0.01505385329222222</v>
+      </c>
+      <c r="R4">
+        <v>0.13548467963</v>
+      </c>
+      <c r="S4">
+        <v>0.008478220895421777</v>
+      </c>
+      <c r="T4">
+        <v>0.01116347951739301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.0412887632937871</v>
-      </c>
-      <c r="H3">
-        <v>0.0412887632937871</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>5.73026152353137</v>
-      </c>
-      <c r="N3">
-        <v>5.73026152353137</v>
-      </c>
-      <c r="O3">
-        <v>0.6027852935265461</v>
-      </c>
-      <c r="P3">
-        <v>0.6027852935265461</v>
-      </c>
-      <c r="Q3">
-        <v>0.2365954116565825</v>
-      </c>
-      <c r="R3">
-        <v>0.2365954116565825</v>
-      </c>
-      <c r="S3">
-        <v>0.6027852935265461</v>
-      </c>
-      <c r="T3">
-        <v>0.6027852935265461</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.08110766666666668</v>
+      </c>
+      <c r="H5">
+        <v>0.243323</v>
+      </c>
+      <c r="I5">
+        <v>0.483901792932281</v>
+      </c>
+      <c r="J5">
+        <v>0.512077833524143</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.2390875</v>
+      </c>
+      <c r="N5">
+        <v>12.478175</v>
+      </c>
+      <c r="O5">
+        <v>0.5889559331553673</v>
+      </c>
+      <c r="P5">
+        <v>0.488548460191474</v>
+      </c>
+      <c r="Q5">
+        <v>0.5060378292541667</v>
+      </c>
+      <c r="R5">
+        <v>3.036226975525</v>
+      </c>
+      <c r="S5">
+        <v>0.2849968320119869</v>
+      </c>
+      <c r="T5">
+        <v>0.2501748370664061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.05318533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.159556</v>
+      </c>
+      <c r="I6">
+        <v>0.3173125206951378</v>
+      </c>
+      <c r="J6">
+        <v>0.3357886052932857</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.047924</v>
+      </c>
+      <c r="N6">
+        <v>0.143772</v>
+      </c>
+      <c r="O6">
+        <v>0.004523918624404262</v>
+      </c>
+      <c r="P6">
+        <v>0.005628995363396378</v>
+      </c>
+      <c r="Q6">
+        <v>0.002548853914666667</v>
+      </c>
+      <c r="R6">
+        <v>0.022939685232</v>
+      </c>
+      <c r="S6">
+        <v>0.001435496022129397</v>
+      </c>
+      <c r="T6">
+        <v>0.001890152502277242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.05318533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.159556</v>
+      </c>
+      <c r="I7">
+        <v>0.3173125206951378</v>
+      </c>
+      <c r="J7">
+        <v>0.3357886052932857</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.120856</v>
+      </c>
+      <c r="N7">
+        <v>12.362568</v>
+      </c>
+      <c r="O7">
+        <v>0.3889996078559396</v>
+      </c>
+      <c r="P7">
+        <v>0.4840221875724928</v>
+      </c>
+      <c r="Q7">
+        <v>0.2191690999786667</v>
+      </c>
+      <c r="R7">
+        <v>1.972521899808</v>
+      </c>
+      <c r="S7">
+        <v>0.1234344461181883</v>
+      </c>
+      <c r="T7">
+        <v>0.1625291352959725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.05318533333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.159556</v>
+      </c>
+      <c r="I8">
+        <v>0.3173125206951378</v>
+      </c>
+      <c r="J8">
+        <v>0.3357886052932857</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1856033333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.55681</v>
+      </c>
+      <c r="O8">
+        <v>0.01752054036428885</v>
+      </c>
+      <c r="P8">
+        <v>0.0218003568726368</v>
+      </c>
+      <c r="Q8">
+        <v>0.009871375151111111</v>
+      </c>
+      <c r="R8">
+        <v>0.08884237636</v>
+      </c>
+      <c r="S8">
+        <v>0.005559486826933404</v>
+      </c>
+      <c r="T8">
+        <v>0.007320311429158607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.05318533333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.159556</v>
+      </c>
+      <c r="I9">
+        <v>0.3173125206951378</v>
+      </c>
+      <c r="J9">
+        <v>0.3357886052932857</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.2390875</v>
+      </c>
+      <c r="N9">
+        <v>12.478175</v>
+      </c>
+      <c r="O9">
+        <v>0.5889559331553673</v>
+      </c>
+      <c r="P9">
+        <v>0.488548460191474</v>
+      </c>
+      <c r="Q9">
+        <v>0.3318279483833333</v>
+      </c>
+      <c r="R9">
+        <v>1.9909676903</v>
+      </c>
+      <c r="S9">
+        <v>0.1868830917278867</v>
+      </c>
+      <c r="T9">
+        <v>0.1640490060658774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.005651333333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.016954</v>
+      </c>
+      <c r="I10">
+        <v>0.03371679207215879</v>
+      </c>
+      <c r="J10">
+        <v>0.03568001212202842</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.047924</v>
+      </c>
+      <c r="N10">
+        <v>0.143772</v>
+      </c>
+      <c r="O10">
+        <v>0.004523918624404262</v>
+      </c>
+      <c r="P10">
+        <v>0.005628995363396378</v>
+      </c>
+      <c r="Q10">
+        <v>0.0002708344986666667</v>
+      </c>
+      <c r="R10">
+        <v>0.002437510488</v>
+      </c>
+      <c r="S10">
+        <v>0.0001525320236104051</v>
+      </c>
+      <c r="T10">
+        <v>0.0002008426228008245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.005651333333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.016954</v>
+      </c>
+      <c r="I11">
+        <v>0.03371679207215879</v>
+      </c>
+      <c r="J11">
+        <v>0.03568001212202842</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.120856</v>
+      </c>
+      <c r="N11">
+        <v>12.362568</v>
+      </c>
+      <c r="O11">
+        <v>0.3889996078559396</v>
+      </c>
+      <c r="P11">
+        <v>0.4840221875724928</v>
+      </c>
+      <c r="Q11">
+        <v>0.02328833087466667</v>
+      </c>
+      <c r="R11">
+        <v>0.209594977872</v>
+      </c>
+      <c r="S11">
+        <v>0.01311581889423002</v>
+      </c>
+      <c r="T11">
+        <v>0.01726991751991725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.005651333333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.016954</v>
+      </c>
+      <c r="I12">
+        <v>0.03371679207215879</v>
+      </c>
+      <c r="J12">
+        <v>0.03568001212202842</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1856033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.55681</v>
+      </c>
+      <c r="O12">
+        <v>0.01752054036428885</v>
+      </c>
+      <c r="P12">
+        <v>0.0218003568726368</v>
+      </c>
+      <c r="Q12">
+        <v>0.001048906304444445</v>
+      </c>
+      <c r="R12">
+        <v>0.00944015674</v>
+      </c>
+      <c r="S12">
+        <v>0.0005907364164545925</v>
+      </c>
+      <c r="T12">
+        <v>0.0007778369974802264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.005651333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.016954</v>
+      </c>
+      <c r="I13">
+        <v>0.03371679207215879</v>
+      </c>
+      <c r="J13">
+        <v>0.03568001212202842</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.2390875</v>
+      </c>
+      <c r="N13">
+        <v>12.478175</v>
+      </c>
+      <c r="O13">
+        <v>0.5889559331553673</v>
+      </c>
+      <c r="P13">
+        <v>0.488548460191474</v>
+      </c>
+      <c r="Q13">
+        <v>0.03525916315833334</v>
+      </c>
+      <c r="R13">
+        <v>0.21155497895</v>
+      </c>
+      <c r="S13">
+        <v>0.01985770473786377</v>
+      </c>
+      <c r="T13">
+        <v>0.01743141498183011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0276675</v>
+      </c>
+      <c r="H14">
+        <v>0.055335</v>
+      </c>
+      <c r="I14">
+        <v>0.1650688943004223</v>
+      </c>
+      <c r="J14">
+        <v>0.1164535490605428</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.047924</v>
+      </c>
+      <c r="N14">
+        <v>0.143772</v>
+      </c>
+      <c r="O14">
+        <v>0.004523918624404262</v>
+      </c>
+      <c r="P14">
+        <v>0.005628995363396378</v>
+      </c>
+      <c r="Q14">
+        <v>0.00132593727</v>
+      </c>
+      <c r="R14">
+        <v>0.007955623620000001</v>
+      </c>
+      <c r="S14">
+        <v>0.0007467582452354989</v>
+      </c>
+      <c r="T14">
+        <v>0.0006555164877128481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0276675</v>
+      </c>
+      <c r="H15">
+        <v>0.055335</v>
+      </c>
+      <c r="I15">
+        <v>0.1650688943004223</v>
+      </c>
+      <c r="J15">
+        <v>0.1164535490605428</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.120856</v>
+      </c>
+      <c r="N15">
+        <v>12.362568</v>
+      </c>
+      <c r="O15">
+        <v>0.3889996078559396</v>
+      </c>
+      <c r="P15">
+        <v>0.4840221875724928</v>
+      </c>
+      <c r="Q15">
+        <v>0.11401378338</v>
+      </c>
+      <c r="R15">
+        <v>0.68408270028</v>
+      </c>
+      <c r="S15">
+        <v>0.06421173515207781</v>
+      </c>
+      <c r="T15">
+        <v>0.05636610156686454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0276675</v>
+      </c>
+      <c r="H16">
+        <v>0.055335</v>
+      </c>
+      <c r="I16">
+        <v>0.1650688943004223</v>
+      </c>
+      <c r="J16">
+        <v>0.1164535490605428</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1856033333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.55681</v>
+      </c>
+      <c r="O16">
+        <v>0.01752054036428885</v>
+      </c>
+      <c r="P16">
+        <v>0.0218003568726368</v>
+      </c>
+      <c r="Q16">
+        <v>0.005135180225000001</v>
+      </c>
+      <c r="R16">
+        <v>0.03081108135</v>
+      </c>
+      <c r="S16">
+        <v>0.002892096225479079</v>
+      </c>
+      <c r="T16">
+        <v>0.00253872892860495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0276675</v>
+      </c>
+      <c r="H17">
+        <v>0.055335</v>
+      </c>
+      <c r="I17">
+        <v>0.1650688943004223</v>
+      </c>
+      <c r="J17">
+        <v>0.1164535490605428</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.2390875</v>
+      </c>
+      <c r="N17">
+        <v>12.478175</v>
+      </c>
+      <c r="O17">
+        <v>0.5889559331553673</v>
+      </c>
+      <c r="P17">
+        <v>0.488548460191474</v>
+      </c>
+      <c r="Q17">
+        <v>0.17261995340625</v>
+      </c>
+      <c r="R17">
+        <v>0.690479813625</v>
+      </c>
+      <c r="S17">
+        <v>0.0972183046776299</v>
+      </c>
+      <c r="T17">
+        <v>0.05689320207736046</v>
       </c>
     </row>
   </sheetData>
